--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2825466.227569269</v>
+        <v>2824631.905153885</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613644</v>
+        <v>5736895.963613639</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1129914.879101311</v>
+        <v>1169739.12625946</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6605014.997120104</v>
+        <v>6599756.26647281</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>162.6249345681427</v>
       </c>
       <c r="C2" t="n">
-        <v>302.3398778399653</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>225.9776623505957</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -898,13 +898,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>387.8281228960627</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>16.14197242058547</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>7.226157814610921</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>261.7806548630974</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1135,16 +1135,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>264.6966215882094</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>365.8441876847328</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>27.29542521440037</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>58.11593919665176</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
         <v>224.990945096747</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>119.5083564082528</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.71160991828055</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -1584,10 +1584,10 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198764</v>
@@ -1596,7 +1596,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>33.12209635668076</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
@@ -1833,7 +1833,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397591</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722221</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
         <v>241.6479458835353</v>
@@ -2067,10 +2067,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.97799327868074</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>76.32723598775095</v>
+        <v>85.15665299898436</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>241.6479458835353</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950535</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>40.08522094771052</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>193.5207055996606</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>187.1069038334014</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H26" t="n">
-        <v>304.7162152260364</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3673956941558</v>
+        <v>37.85456630858764</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>391.2484340542709</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C29" t="n">
-        <v>391.1528109662889</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D29" t="n">
-        <v>385.5487567942964</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E29" t="n">
-        <v>395.3262795146986</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F29" t="n">
-        <v>182.5234554208108</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G29" t="n">
-        <v>389.7704674525225</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H29" t="n">
-        <v>292.9288785849856</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I29" t="n">
-        <v>70.61771124252394</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.0577306402665</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T29" t="n">
-        <v>205.1138853990361</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U29" t="n">
-        <v>239.6193530095113</v>
+        <v>31.39997732821385</v>
       </c>
       <c r="V29" t="n">
-        <v>331.4686453033105</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W29" t="n">
-        <v>365.0521640426095</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X29" t="n">
-        <v>381.7664300391634</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.0567725078172</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C31" t="n">
-        <v>154.511904900327</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>143.0291644167454</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>144.4311731667901</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>148.114280816941</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>150.7073533501384</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37.85456630858764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>107.1234925344637</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U31" t="n">
-        <v>265.0996321657635</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V31" t="n">
-        <v>256.2763537962996</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W31" t="n">
-        <v>261.4084340326407</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.6440925460419</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C32" t="n">
-        <v>388.5484694580599</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D32" t="n">
-        <v>382.9444152860673</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E32" t="n">
-        <v>392.7219380064695</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F32" t="n">
-        <v>399.3452326040466</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G32" t="n">
-        <v>387.1661259442934</v>
+        <v>181.5510917712254</v>
       </c>
       <c r="H32" t="n">
-        <v>290.3245370767565</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I32" t="n">
-        <v>4.105762798302292</v>
+        <v>69.8172295989405</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T32" t="n">
-        <v>202.5095438908071</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U32" t="n">
-        <v>237.0150115012823</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V32" t="n">
-        <v>328.8643037950814</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W32" t="n">
-        <v>362.4478225343804</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X32" t="n">
-        <v>379.1620885309343</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y32" t="n">
-        <v>379.4524309995881</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>168.3478340083012</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>140.4248229085164</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>141.826831658561</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>99.51156997956004</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.0529751170861</v>
+        <v>47.62968948588662</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>262.4952906575344</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V34" t="n">
-        <v>253.6720122880706</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W34" t="n">
-        <v>258.8040925244117</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X34" t="n">
-        <v>53.48458461203052</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.0134663033202</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.6440925460419</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C35" t="n">
-        <v>388.5484694580599</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D35" t="n">
-        <v>382.9444152860673</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E35" t="n">
-        <v>392.7219380064695</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F35" t="n">
-        <v>399.3452326040466</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G35" t="n">
-        <v>387.1661259442934</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H35" t="n">
-        <v>290.3245370767565</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I35" t="n">
-        <v>68.01336973429486</v>
+        <v>69.8172295989405</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>116.4533891320374</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T35" t="n">
-        <v>22.14854782277824</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U35" t="n">
-        <v>237.0150115012823</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V35" t="n">
-        <v>328.8643037950814</v>
+        <v>123.249269622013</v>
       </c>
       <c r="W35" t="n">
-        <v>362.4478225343804</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X35" t="n">
-        <v>379.1620885309343</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y35" t="n">
-        <v>379.4524309995881</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C37" t="n">
-        <v>151.907563392098</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.94511581955163</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.12044458447247</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T37" t="n">
-        <v>219.6783763112622</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U37" t="n">
-        <v>262.4952906575344</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V37" t="n">
-        <v>253.6720122880706</v>
+        <v>124.4736034795723</v>
       </c>
       <c r="W37" t="n">
-        <v>258.8040925244117</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X37" t="n">
-        <v>218.4855481971107</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.0134663033202</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.6440925460419</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C38" t="n">
-        <v>388.5484694580599</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D38" t="n">
-        <v>382.9444152860673</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E38" t="n">
-        <v>392.7219380064695</v>
+        <v>187.1069038334014</v>
       </c>
       <c r="F38" t="n">
-        <v>399.3452326040466</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G38" t="n">
-        <v>387.1661259442934</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H38" t="n">
-        <v>290.3245370767565</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I38" t="n">
-        <v>68.01336973429486</v>
+        <v>69.8172295989405</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>116.4533891320374</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T38" t="n">
-        <v>202.5095438908071</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U38" t="n">
-        <v>237.0150115012823</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V38" t="n">
-        <v>328.8643037950814</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W38" t="n">
-        <v>182.0868264663509</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X38" t="n">
-        <v>379.1620885309343</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y38" t="n">
-        <v>379.4524309995881</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.3478340083012</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>64.62528978782068</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T40" t="n">
-        <v>219.6783763112622</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U40" t="n">
-        <v>262.4952906575344</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>253.6720122880706</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W40" t="n">
-        <v>258.8040925244117</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X40" t="n">
-        <v>218.4855481971107</v>
+        <v>56.36561903088015</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.0134663033202</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.6440925460419</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>388.5484694580599</v>
+        <v>218.0291057078766</v>
       </c>
       <c r="D41" t="n">
-        <v>382.9444152860673</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>392.7219380064695</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>399.3452326040466</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>387.1661259442934</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>290.3245370767565</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.105762798302503</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>202.5095438908071</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>237.0150115012823</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.8643037950814</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>362.4478225343804</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>379.1620885309343</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>379.4524309995881</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.39150265577524</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.6365053207952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.94511581955166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>219.6783763112622</v>
+        <v>206.252387519671</v>
       </c>
       <c r="U43" t="n">
-        <v>262.4952906575344</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>253.6720122880706</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>258.8040925244117</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>218.4855481971108</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>205.0134663033203</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>403.5146263596155</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>397.814949099641</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>407.5924718200432</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>414.2157664176202</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.036659757867</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>305.1950708903301</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>82.8839035478685</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>131.3239229456102</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3800777043807</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>251.8855453148559</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>343.734837608655</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>377.318356347954</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>394.0326223445079</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>394.3229648131617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.15303938921234</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.28509746512201</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>234.5489101248358</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.365824471108</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>268.5425461016442</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>273.6746263379853</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>233.3560820106844</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8840001168938</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>166.6022603407614</v>
       </c>
       <c r="C2" t="n">
-        <v>1372.639285815648</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>968.1753559087084</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
         <v>132.8047283792926</v>
@@ -4330,28 +4330,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>731.806544067563</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>330.8698710156531</v>
       </c>
     </row>
     <row r="3">
@@ -4388,46 +4388,46 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>508.1659581184966</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.3615225997325</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C4" t="n">
-        <v>325.3615225997325</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>788.4410833512843</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4410833512843</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X4" t="n">
-        <v>550.0972212109677</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.3615225997325</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C5" t="n">
-        <v>1690.327927173125</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>751.4208778585605</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O6" t="n">
-        <v>1268.263812524886</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.9220812062898</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="C7" t="n">
-        <v>365.9220812062898</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>365.9220812062898</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>358.622931898602</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
         <v>358.622931898602</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1016.701348351886</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1016.701348351886</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1016.701348351886</v>
+        <v>1306.739078348333</v>
       </c>
       <c r="X7" t="n">
-        <v>778.3574862115695</v>
+        <v>1068.395216208017</v>
       </c>
       <c r="Y7" t="n">
-        <v>553.6217876003342</v>
+        <v>843.6595175967814</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1542.752026609714</v>
+        <v>166.6022603407614</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.627435922984</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D8" t="n">
-        <v>728.1635060160443</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>313.823290532941</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1767.09327468481</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.973206274203</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.973206274203</v>
+        <v>576.8234400052509</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>508.1659581184966</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>830.5088663048039</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>659.4154938665204</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>499.9208491894304</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>499.9208491894304</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>335.2897233000216</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>1297.278237189974</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>1018.208572698848</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>1018.208572698848</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y10" t="n">
-        <v>1018.208572698848</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>182.7137268369972</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
         <v>1760.328909494509</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.7015972963604</v>
+        <v>621.2037901694287</v>
       </c>
       <c r="C13" t="n">
-        <v>379.7015972963604</v>
+        <v>479.90732856583</v>
       </c>
       <c r="D13" t="n">
-        <v>379.7015972963604</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E13" t="n">
-        <v>248.5876929993648</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F13" t="n">
-        <v>248.5876929993648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>111.1342127595931</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>111.1342127595931</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.451719820136</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.362885594343</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="W13" t="n">
-        <v>941.0901319379022</v>
+        <v>987.65353703442</v>
       </c>
       <c r="X13" t="n">
-        <v>732.5431806322705</v>
+        <v>779.1065857287882</v>
       </c>
       <c r="Y13" t="n">
-        <v>537.60439285572</v>
+        <v>779.1065857287882</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5308,22 +5308,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>2083.796217986828</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.700360677169</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E16" t="n">
         <v>93.2436976906228</v>
@@ -5442,7 +5442,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
         <v>927.8555407749236</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751518</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W16" t="n">
-        <v>688.0888953187109</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X16" t="n">
-        <v>479.5419440130791</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y16" t="n">
-        <v>284.6031562365286</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.4317876121981</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C19" t="n">
-        <v>564.1353260085995</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D19" t="n">
-        <v>434.4375921661943</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E19" t="n">
-        <v>434.4375921661943</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F19" t="n">
-        <v>299.6033771114704</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114704</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5679,7 +5679,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
         <v>927.8555407749236</v>
@@ -5706,19 +5706,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1434.451719820136</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.362885594343</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W19" t="n">
-        <v>941.0901319379019</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X19" t="n">
-        <v>941.0901319379019</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y19" t="n">
-        <v>863.3345831715577</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5782,22 +5782,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>966.9017898022406</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1670.858880348135</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.4489218235254</v>
+        <v>842.3529540020761</v>
       </c>
       <c r="C22" t="n">
-        <v>290.1524602199268</v>
+        <v>701.0564923984774</v>
       </c>
       <c r="D22" t="n">
-        <v>290.1524602199268</v>
+        <v>571.3587585560723</v>
       </c>
       <c r="E22" t="n">
-        <v>290.1524602199268</v>
+        <v>571.3587585560723</v>
       </c>
       <c r="F22" t="n">
-        <v>290.1524602199268</v>
+        <v>436.5245435013484</v>
       </c>
       <c r="G22" t="n">
-        <v>290.1524602199268</v>
+        <v>299.0710632615766</v>
       </c>
       <c r="H22" t="n">
-        <v>170.3419158600682</v>
+        <v>179.2605189017181</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5916,7 +5916,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
         <v>927.8555407749236</v>
@@ -5943,19 +5943,19 @@
         <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1236.92629069086</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V22" t="n">
-        <v>992.8374564650672</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W22" t="n">
-        <v>992.8374564650672</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="X22" t="n">
-        <v>784.2905051594355</v>
+        <v>1037.291741778627</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.351717382885</v>
+        <v>842.3529540020761</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
         <v>430.910136076462</v>
@@ -6034,7 +6034,7 @@
         <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1597.308950304478</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3648.795939599041</v>
+        <v>547.3179767581217</v>
       </c>
       <c r="C25" t="n">
-        <v>3507.499477995442</v>
+        <v>406.0215151545231</v>
       </c>
       <c r="D25" t="n">
-        <v>3377.801744153036</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="E25" t="n">
-        <v>3377.801744153036</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F25" t="n">
-        <v>3242.967529098312</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G25" t="n">
-        <v>3105.514048858541</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>2985.703504498682</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>4450.114219755819</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>4450.114219755819</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U25" t="n">
-        <v>4197.112983136628</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V25" t="n">
-        <v>4001.637522934951</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W25" t="n">
-        <v>4001.637522934951</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X25" t="n">
-        <v>4001.637522934951</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="Y25" t="n">
-        <v>3806.6987351584</v>
+        <v>705.2207723174813</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2459.725286714852</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.600696028122</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D26" t="n">
-        <v>1645.136766121183</v>
+        <v>1445.942292287972</v>
       </c>
       <c r="E26" t="n">
-        <v>1230.796550638079</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F26" t="n">
-        <v>809.7661385917668</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G26" t="n">
-        <v>401.0378544845989</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.3145881425788</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="C28" t="n">
-        <v>563.2566126939366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>403.7619680168467</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6384,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1523.037606251442</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.093855288175</v>
+        <v>1256.068767340148</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.093855288175</v>
+        <v>998.0123308222533</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.093855288175</v>
+        <v>734.7719748737105</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.749993147859</v>
+        <v>512.2574212759768</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.0142945366232</v>
+        <v>303.3510312073244</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2222.403657262468</v>
+        <v>2438.386230178005</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.29980780157</v>
+        <v>2044.090948033857</v>
       </c>
       <c r="D29" t="n">
-        <v>1437.856619120463</v>
+        <v>1655.456326669501</v>
       </c>
       <c r="E29" t="n">
-        <v>1038.537144863191</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F29" t="n">
-        <v>854.1700181755036</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G29" t="n">
-        <v>460.4624752941678</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H29" t="n">
-        <v>164.5747191477177</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4541.924550551073</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T29" t="n">
-        <v>4334.738807723764</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U29" t="n">
-        <v>4092.699057209106</v>
+        <v>4304.638793540887</v>
       </c>
       <c r="V29" t="n">
-        <v>3757.882243771418</v>
+        <v>3970.630547419951</v>
       </c>
       <c r="W29" t="n">
-        <v>3389.142684132419</v>
+        <v>3602.699555097703</v>
       </c>
       <c r="X29" t="n">
-        <v>3003.520027527204</v>
+        <v>3217.885465809238</v>
       </c>
       <c r="Y29" t="n">
-        <v>2617.604095701126</v>
+        <v>2832.778101299911</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>841.5203407723823</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="C31" t="n">
-        <v>685.4477095599308</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="D31" t="n">
-        <v>540.9738061086728</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="E31" t="n">
-        <v>395.0837322028242</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="F31" t="n">
-        <v>245.4733475392474</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>131.4806333558628</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.0480755712712</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K31" t="n">
-        <v>291.3222317689471</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L31" t="n">
-        <v>565.9411605244455</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M31" t="n">
-        <v>869.9270454403767</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N31" t="n">
-        <v>1165.487656310065</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O31" t="n">
-        <v>1439.770095111977</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P31" t="n">
-        <v>1660.167363837027</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q31" t="n">
-        <v>1740.417222114976</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R31" t="n">
-        <v>1740.417222114976</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S31" t="n">
-        <v>1740.417222114976</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="T31" t="n">
-        <v>1632.211674100366</v>
+        <v>1523.037606251442</v>
       </c>
       <c r="U31" t="n">
-        <v>1364.434267872322</v>
+        <v>1256.068767340148</v>
       </c>
       <c r="V31" t="n">
-        <v>1105.569264037676</v>
+        <v>998.0123308222533</v>
       </c>
       <c r="W31" t="n">
-        <v>841.5203407723823</v>
+        <v>734.7719748737105</v>
       </c>
       <c r="X31" t="n">
-        <v>841.5203407723823</v>
+        <v>512.2574212759768</v>
       </c>
       <c r="Y31" t="n">
-        <v>841.5203407723823</v>
+        <v>303.3510312073244</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2361.078527159305</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C32" t="n">
-        <v>1968.605325686518</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D32" t="n">
-        <v>1581.79278499352</v>
+        <v>1445.942292287972</v>
       </c>
       <c r="E32" t="n">
-        <v>1185.103958724359</v>
+        <v>1047.431385347451</v>
       </c>
       <c r="F32" t="n">
-        <v>781.7249358919887</v>
+        <v>642.2302818437219</v>
       </c>
       <c r="G32" t="n">
-        <v>390.648040998763</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H32" t="n">
-        <v>97.39093284042309</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T32" t="n">
-        <v>4457.62978969194</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U32" t="n">
-        <v>4218.220687165393</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V32" t="n">
-        <v>3886.034521715815</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W32" t="n">
-        <v>3519.925610064926</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X32" t="n">
-        <v>3136.93360144782</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y32" t="n">
-        <v>2753.648317609853</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>378.3463790715091</v>
+        <v>478.9596642275479</v>
       </c>
       <c r="C34" t="n">
-        <v>378.3463790715091</v>
+        <v>478.9596642275479</v>
       </c>
       <c r="D34" t="n">
-        <v>236.5031236083612</v>
+        <v>478.9596642275479</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>478.9596642275479</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>478.9596642275479</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>327.5385816956742</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>193.7604350437138</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>124.626373664418</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K34" t="n">
-        <v>296.4788279552406</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L34" t="n">
-        <v>573.6760548038858</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M34" t="n">
-        <v>880.2402378129638</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N34" t="n">
-        <v>1178.379146775799</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O34" t="n">
-        <v>1455.239883670858</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P34" t="n">
-        <v>1678.215450489055</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q34" t="n">
-        <v>1761.04360686015</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R34" t="n">
-        <v>1761.04360686015</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S34" t="n">
-        <v>1592.303227954003</v>
+        <v>1698.646239271665</v>
       </c>
       <c r="T34" t="n">
-        <v>1592.303227954003</v>
+        <v>1698.646239271665</v>
       </c>
       <c r="U34" t="n">
-        <v>1327.156469714069</v>
+        <v>1431.677400360372</v>
       </c>
       <c r="V34" t="n">
-        <v>1070.922113867533</v>
+        <v>1173.620963842477</v>
       </c>
       <c r="W34" t="n">
-        <v>809.5038385903495</v>
+        <v>910.3806078939341</v>
       </c>
       <c r="X34" t="n">
-        <v>755.4790056489045</v>
+        <v>687.8660542962003</v>
       </c>
       <c r="Y34" t="n">
-        <v>548.3946962516113</v>
+        <v>478.9596642275479</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.63166547849</v>
+        <v>2438.386230178005</v>
       </c>
       <c r="C35" t="n">
-        <v>2033.158464005702</v>
+        <v>2044.090948033857</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.345923312705</v>
+        <v>1655.456326669501</v>
       </c>
       <c r="E35" t="n">
-        <v>1249.657097043543</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F35" t="n">
-        <v>846.2780742111731</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G35" t="n">
-        <v>455.2011793179474</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H35" t="n">
-        <v>161.9440711596075</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4544.555198539183</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T35" t="n">
-        <v>4522.182928011124</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U35" t="n">
-        <v>4282.773825484576</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V35" t="n">
-        <v>3950.587660034999</v>
+        <v>3970.630547419951</v>
       </c>
       <c r="W35" t="n">
-        <v>3584.47874838411</v>
+        <v>3602.699555097703</v>
       </c>
       <c r="X35" t="n">
-        <v>3201.486739767005</v>
+        <v>3217.885465809238</v>
       </c>
       <c r="Y35" t="n">
-        <v>2818.201455929037</v>
+        <v>2832.778101299911</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>246.6856809149642</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>124.626373664418</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K37" t="n">
-        <v>296.4788279552406</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L37" t="n">
-        <v>573.6760548038858</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M37" t="n">
-        <v>880.2402378129638</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N37" t="n">
-        <v>1178.379146775799</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O37" t="n">
-        <v>1455.239883670858</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P37" t="n">
-        <v>1678.215450489055</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q37" t="n">
-        <v>1761.04360686015</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R37" t="n">
-        <v>1693.422277749492</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S37" t="n">
-        <v>1679.159202411641</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T37" t="n">
-        <v>1457.261852602285</v>
+        <v>1352.475146673935</v>
       </c>
       <c r="U37" t="n">
-        <v>1192.115094362351</v>
+        <v>1085.506307762642</v>
       </c>
       <c r="V37" t="n">
-        <v>935.8807385158153</v>
+        <v>959.7753951570132</v>
       </c>
       <c r="W37" t="n">
-        <v>674.4624632386318</v>
+        <v>696.5350392084705</v>
       </c>
       <c r="X37" t="n">
-        <v>453.7699903122573</v>
+        <v>474.0204856107367</v>
       </c>
       <c r="Y37" t="n">
-        <v>246.6856809149642</v>
+        <v>265.1140955420843</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.63166547849</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C38" t="n">
-        <v>2033.158464005702</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.345923312705</v>
+        <v>1445.942292287972</v>
       </c>
       <c r="E38" t="n">
-        <v>1249.657097043543</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F38" t="n">
-        <v>846.2780742111731</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G38" t="n">
-        <v>455.2011793179474</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H38" t="n">
-        <v>161.9440711596075</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4544.555198539183</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T38" t="n">
-        <v>4340.000103699984</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U38" t="n">
-        <v>4100.591001173436</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V38" t="n">
-        <v>3768.404835723858</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W38" t="n">
-        <v>3584.47874838411</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X38" t="n">
-        <v>3201.486739767005</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y38" t="n">
-        <v>2818.201455929037</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2994.384975361612</v>
+        <v>393.4665975693223</v>
       </c>
       <c r="C40" t="n">
-        <v>2994.384975361612</v>
+        <v>393.4665975693223</v>
       </c>
       <c r="D40" t="n">
-        <v>2994.384975361612</v>
+        <v>393.4665975693223</v>
       </c>
       <c r="E40" t="n">
-        <v>2994.384975361612</v>
+        <v>393.4665975693223</v>
       </c>
       <c r="F40" t="n">
-        <v>2994.384975361612</v>
+        <v>244.6647802224965</v>
       </c>
       <c r="G40" t="n">
-        <v>2994.384975361612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>2994.384975361612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>2994.384975361612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3025.767651335408</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K40" t="n">
-        <v>3197.62010562623</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L40" t="n">
-        <v>3474.817332474875</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M40" t="n">
-        <v>3781.381515483954</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N40" t="n">
-        <v>4079.520424446789</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O40" t="n">
-        <v>4356.381161341847</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P40" t="n">
-        <v>4579.356728160044</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S40" t="n">
-        <v>4596.906814038392</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T40" t="n">
-        <v>4375.009464229036</v>
+        <v>1352.475146673935</v>
       </c>
       <c r="U40" t="n">
-        <v>4109.862705989102</v>
+        <v>1352.475146673935</v>
       </c>
       <c r="V40" t="n">
-        <v>3853.628350142566</v>
+        <v>1094.41871015604</v>
       </c>
       <c r="W40" t="n">
-        <v>3592.210074865382</v>
+        <v>831.1783542074969</v>
       </c>
       <c r="X40" t="n">
-        <v>3371.517601939008</v>
+        <v>774.2433854894362</v>
       </c>
       <c r="Y40" t="n">
-        <v>3164.433292541715</v>
+        <v>565.3369954207838</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2356.931292009505</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C41" t="n">
-        <v>1964.458090536717</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1577.64554984372</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1180.956723574559</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>777.5777007421884</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>386.5008058489627</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4658.037649381339</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4453.48255454214</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4214.073452015592</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>3881.887286566015</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3515.778374915125</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X41" t="n">
-        <v>3132.78636629802</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y41" t="n">
-        <v>2749.501082460052</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
         <v>1198.623017005979</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>225.199763671224</v>
+        <v>541.5939311562606</v>
       </c>
       <c r="C43" t="n">
-        <v>225.199763671224</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="D43" t="n">
-        <v>225.199763671224</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E43" t="n">
-        <v>225.199763671224</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>225.199763671224</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>225.199763671224</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>124.626373664418</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>296.4788279552406</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>573.6760548038858</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>880.2402378129638</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1178.379146775799</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1455.239883670858</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1678.215450489055</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1761.04360686015</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1693.422277749492</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1693.422277749492</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1471.524927940136</v>
+        <v>1227.915081222018</v>
       </c>
       <c r="U43" t="n">
-        <v>1206.378169700202</v>
+        <v>1227.915081222018</v>
       </c>
       <c r="V43" t="n">
-        <v>950.1438138536664</v>
+        <v>954.0293361615403</v>
       </c>
       <c r="W43" t="n">
-        <v>688.7255385764829</v>
+        <v>954.0293361615403</v>
       </c>
       <c r="X43" t="n">
-        <v>468.0330656501084</v>
+        <v>954.0293361615403</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9487562528152</v>
+        <v>729.293637550305</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2123.282911360694</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C44" t="n">
-        <v>2123.282911360694</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D44" t="n">
-        <v>1721.449629441864</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E44" t="n">
-        <v>1309.740061946871</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F44" t="n">
-        <v>891.3402978886691</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G44" t="n">
-        <v>485.2426617696113</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H44" t="n">
-        <v>176.9648123854395</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4529.534457313352</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4309.95862124832</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4055.528777495941</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3708.321870820531</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3327.19221794381</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2929.179468100873</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.873443037073</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>938.5427028615031</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>767.4493304232196</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>607.9546857461296</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>109.9045451889801</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>267.0351710043649</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>529.5105693775722</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>821.3529239112122</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.770004398609</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1366.90891281823</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1575.162651160989</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1643.268979056647</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1643.268979056647</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1643.268979056647</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1406.350888021459</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>1126.183388555693</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V46" t="n">
-        <v>854.9282914833257</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W46" t="n">
-        <v>578.4892749803103</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X46" t="n">
-        <v>342.7760608281038</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.6710102049787</v>
+        <v>1126.242409255547</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
@@ -7987,13 +7987,13 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>296.5410069764447</v>
+        <v>594.2603172363631</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,10 +8060,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>332.177313013162</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>501.1513772538824</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8078,7 +8078,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>228.7885022587807</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8297,25 +8297,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>391.1981341283841</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>499.2964884458369</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>535.1658287548266</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>528.6762761514423</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>147.9380505529371</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8941,7 +8941,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
@@ -9017,16 +9017,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>114.253171479086</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,7 +9257,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>713.8858861212706</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>527.8697493391553</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O24" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9956,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>743.5567912259809</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10193,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>743.5567912259809</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10430,25 +10430,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>743.5567912259809</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10594,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>701.4825071992079</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10685,7 +10685,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,16 +11138,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>506.3432205021228</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>8.892400095728334</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>67.97203379209854</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>106.7614006308819</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>41.75961948232833</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>85.49034255957886</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.0114066201042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.356407722628177</v>
+        <v>0.5269907113947596</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>88.31553555627056</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>48.1272402838747</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>206.4614817925755</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>207.4188940377138</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.015043019744894</v>
+        <v>115.856856948156</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>219.4261186914649</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>207.4188940377141</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.9521755165303</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2408468290243</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I31" t="n">
-        <v>100.3120516231435</v>
+        <v>61.65700367097239</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>69.54945732778071</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S31" t="n">
-        <v>169.6573166253152</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1592252850276</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.0898897053398</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.6178078115493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>207.4188940377137</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>63.90760693599256</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>116.4533891320374</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C34" t="n">
-        <v>151.907563392098</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F34" t="n">
-        <v>145.5099393087119</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G34" t="n">
-        <v>148.1030118419093</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.6365053207952</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.70771011491439</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.94511581955163</v>
+        <v>68.74897568419728</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>121.2271454958451</v>
       </c>
       <c r="T34" t="n">
-        <v>219.6783763112622</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>165.0009635850802</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>180.3609960680288</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>207.418894037714</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.3478340083012</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D37" t="n">
-        <v>140.4248229085164</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E37" t="n">
-        <v>141.826831658561</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F37" t="n">
-        <v>145.5099393087119</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G37" t="n">
-        <v>148.1030118419093</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H37" t="n">
-        <v>130.6365053207952</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I37" t="n">
-        <v>97.70771011491439</v>
+        <v>99.51156997956004</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>68.74897568419728</v>
       </c>
       <c r="S37" t="n">
-        <v>152.9325305326137</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>131.0022686731438</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>207.4188940377138</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>180.3609960680295</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>151.907563392098</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D40" t="n">
-        <v>140.4248229085164</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E40" t="n">
-        <v>141.826831658561</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F40" t="n">
-        <v>145.5099393087119</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>148.1030118419093</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.6365053207952</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I40" t="n">
-        <v>97.70771011491439</v>
+        <v>99.51156997956004</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.94511581955163</v>
+        <v>68.74897568419728</v>
       </c>
       <c r="S40" t="n">
-        <v>102.4276853292655</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>163.9237890308762</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>68.01336973429488</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>112.347626333735</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.956331352526</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>151.907563392098</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>140.4248229085164</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>141.826831658561</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.509939308712</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>148.1030118419093</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>97.70771011491442</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>167.0529751170862</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>30.90086411339391</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>403.4190032716335</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.0653284326625</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>166.7780972056716</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>155.29535672209</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>156.6973654721346</v>
+        <v>76.01660951524171</v>
       </c>
       <c r="F46" t="n">
-        <v>160.3804731222856</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>162.9735456554829</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>145.5070391343688</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.578243928488</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>81.81564963312528</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.9235089306598</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>580869.8269346271</v>
+        <v>580869.826934627</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580869.8269346271</v>
+        <v>580869.826934627</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>536584.4722304172</v>
+        <v>560110.6205422303</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>558908.8956176832</v>
+        <v>560110.6205422302</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>562818.6693489845</v>
+        <v>560110.6205422303</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562818.6693489845</v>
+        <v>560110.6205422302</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562818.6693489845</v>
+        <v>560110.6205422302</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>562818.6693489845</v>
+        <v>536584.4722304172</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>540494.2459617185</v>
+        <v>536584.4722304172</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>586376.6149168451</v>
       </c>
       <c r="D2" t="n">
-        <v>586376.6149168453</v>
+        <v>586376.6149168451</v>
       </c>
       <c r="E2" t="n">
+        <v>568257.977132332</v>
+      </c>
+      <c r="F2" t="n">
         <v>568257.9771323319</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>568257.9771323322</v>
       </c>
-      <c r="G2" t="n">
-        <v>568257.977132332</v>
-      </c>
       <c r="H2" t="n">
-        <v>568257.9771323322</v>
+        <v>568257.9771323318</v>
       </c>
       <c r="I2" t="n">
-        <v>568257.9771323316</v>
+        <v>568257.9771323323</v>
       </c>
       <c r="J2" t="n">
-        <v>521367.6015631692</v>
+        <v>546277.6409521475</v>
       </c>
       <c r="K2" t="n">
-        <v>545005.2263261561</v>
+        <v>546277.6409521477</v>
       </c>
       <c r="L2" t="n">
-        <v>549144.986747534</v>
+        <v>546277.6409521474</v>
       </c>
       <c r="M2" t="n">
-        <v>549144.9867475339</v>
+        <v>546277.6409521478</v>
       </c>
       <c r="N2" t="n">
-        <v>549144.9867475339</v>
+        <v>546277.6409521478</v>
       </c>
       <c r="O2" t="n">
-        <v>549144.9867475338</v>
+        <v>521367.6015631687</v>
       </c>
       <c r="P2" t="n">
-        <v>525507.3619845469</v>
+        <v>521367.6015631689</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>149131.6131716206</v>
       </c>
       <c r="K3" t="n">
-        <v>11896.42705085888</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2083.473206583258</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>160358.4505006827</v>
@@ -26426,40 +26426,40 @@
         <v>184088.9587438941</v>
       </c>
       <c r="E4" t="n">
-        <v>74729.89476777156</v>
+        <v>74729.89476777153</v>
       </c>
       <c r="F4" t="n">
         <v>74729.89476777153</v>
       </c>
       <c r="G4" t="n">
-        <v>74729.89476777153</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="H4" t="n">
-        <v>74729.89476777153</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="I4" t="n">
-        <v>74729.89476777153</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090265</v>
+        <v>60756.14300804192</v>
       </c>
       <c r="K4" t="n">
-        <v>59947.21970617375</v>
+        <v>60756.14300804192</v>
       </c>
       <c r="L4" t="n">
-        <v>62579.02588051407</v>
+        <v>60756.14300804191</v>
       </c>
       <c r="M4" t="n">
-        <v>62579.02588051407</v>
+        <v>60756.14300804191</v>
       </c>
       <c r="N4" t="n">
-        <v>62579.02588051407</v>
+        <v>60756.1430080419</v>
       </c>
       <c r="O4" t="n">
-        <v>62579.02588051403</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>47551.67152524296</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
+        <v>72182.65684334106</v>
+      </c>
+      <c r="K5" t="n">
+        <v>72182.65684334106</v>
+      </c>
+      <c r="L5" t="n">
+        <v>72182.65684334106</v>
+      </c>
+      <c r="M5" t="n">
+        <v>72182.65684334106</v>
+      </c>
+      <c r="N5" t="n">
+        <v>72182.65684334106</v>
+      </c>
+      <c r="O5" t="n">
         <v>70865.21024487332</v>
       </c>
-      <c r="K5" t="n">
-        <v>72115.36115204664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>72334.30553830195</v>
-      </c>
-      <c r="M5" t="n">
-        <v>72334.30553830195</v>
-      </c>
-      <c r="N5" t="n">
-        <v>72334.30553830195</v>
-      </c>
-      <c r="O5" t="n">
-        <v>72334.30553830195</v>
-      </c>
       <c r="P5" t="n">
-        <v>71084.15463112864</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>161963.0812013394</v>
       </c>
       <c r="C6" t="n">
+        <v>336918.5910944534</v>
+      </c>
+      <c r="D6" t="n">
         <v>336918.5910944535</v>
       </c>
-      <c r="D6" t="n">
-        <v>336918.5910944537</v>
-      </c>
       <c r="E6" t="n">
-        <v>204454.0093071819</v>
+        <v>204403.6797577807</v>
       </c>
       <c r="F6" t="n">
-        <v>420182.9255876958</v>
+        <v>420132.5960382941</v>
       </c>
       <c r="G6" t="n">
-        <v>420182.9255876957</v>
+        <v>420132.5960382943</v>
       </c>
       <c r="H6" t="n">
-        <v>420182.9255876958</v>
+        <v>420132.596038294</v>
       </c>
       <c r="I6" t="n">
-        <v>420182.9255876952</v>
+        <v>420132.5960382944</v>
       </c>
       <c r="J6" t="n">
-        <v>268987.7251614982</v>
+        <v>264095.8418903531</v>
       </c>
       <c r="K6" t="n">
-        <v>401046.2184170768</v>
+        <v>413227.4550619739</v>
       </c>
       <c r="L6" t="n">
-        <v>412148.1821221347</v>
+        <v>413227.4550619737</v>
       </c>
       <c r="M6" t="n">
-        <v>253873.2048280352</v>
+        <v>252869.0045612913</v>
       </c>
       <c r="N6" t="n">
-        <v>414231.6553287179</v>
+        <v>413227.455061974</v>
       </c>
       <c r="O6" t="n">
-        <v>414231.6553287178</v>
+        <v>405401.9453747436</v>
       </c>
       <c r="P6" t="n">
-        <v>406871.5358281753</v>
+        <v>405401.9453747438</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K2" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L2" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M2" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N2" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O2" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K2" t="n">
-        <v>14.8705338135736</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.604341508229073</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P2" t="n">
-        <v>14.8705338135736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>243.4940332997018</v>
       </c>
       <c r="C2" t="n">
-        <v>103.6834669398972</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,22 +27432,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27551,13 +27551,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>45.16922525927754</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>18.19522188379989</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>380.4949914321515</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>152.0755491657528</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>14.49831298311699</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>152.1234863376399</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>31.08311863665796</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>138.2824619493117</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28070,16 +28070,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>177.8444843222617</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633798</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633798</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="R31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="S31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.87053381357364</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.47487532180271</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.47487532180268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.604341508229074</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
@@ -34707,13 +34707,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>203.2507825193993</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35017,25 +35017,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>441.8756042977812</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>471.1119924130248</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533853</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>56.50169247908597</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>656.1344071212706</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -35986,7 +35986,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>473.6101143363516</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O24" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.22479737900053</v>
+        <v>29.89581283615761</v>
       </c>
       <c r="K28" t="n">
-        <v>156.1134623456949</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L28" t="n">
-        <v>262.5223235152127</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M28" t="n">
-        <v>292.1859155964578</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N28" t="n">
-        <v>283.67553777197</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O28" t="n">
-        <v>262.1824346732062</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P28" t="n">
-        <v>207.7529699491034</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.18992909344529</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.09533119257416</v>
+        <v>29.89581283615761</v>
       </c>
       <c r="K31" t="n">
-        <v>170.9839961592686</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L31" t="n">
-        <v>277.3928573287863</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M31" t="n">
-        <v>307.0564494100315</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N31" t="n">
-        <v>298.5460715855436</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O31" t="n">
-        <v>277.0529684867798</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P31" t="n">
-        <v>222.623503762677</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.06046290701892</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.69967270080324</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K34" t="n">
-        <v>173.5883376674976</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L34" t="n">
-        <v>279.9971988370154</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M34" t="n">
-        <v>309.6607909182605</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N34" t="n">
-        <v>301.1504130937727</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O34" t="n">
-        <v>279.6573099950089</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P34" t="n">
-        <v>225.2278452709061</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.664804415248</v>
+        <v>81.86094455060235</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37314,7 +37314,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.69967270080324</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K37" t="n">
-        <v>173.5883376674976</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L37" t="n">
-        <v>279.9971988370154</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M37" t="n">
-        <v>309.6607909182605</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N37" t="n">
-        <v>301.1504130937727</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O37" t="n">
-        <v>279.6573099950089</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P37" t="n">
-        <v>225.2278452709061</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.664804415248</v>
+        <v>81.86094455060235</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.69967270080324</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K40" t="n">
-        <v>173.5883376674976</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L40" t="n">
-        <v>279.9971988370154</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M40" t="n">
-        <v>309.6607909182605</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N40" t="n">
-        <v>301.1504130937727</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O40" t="n">
-        <v>279.6573099950089</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P40" t="n">
-        <v>225.2278452709061</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.664804415248</v>
+        <v>81.86094455060235</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>448.7789367637054</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.69967270080321</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
-        <v>173.5883376674976</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L43" t="n">
-        <v>279.9971988370154</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M43" t="n">
-        <v>309.6607909182605</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N43" t="n">
-        <v>301.1504130937727</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O43" t="n">
-        <v>279.6573099950089</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P43" t="n">
-        <v>225.2278452709061</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.66480441524797</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.8291388872296</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>158.717803853924</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>265.1266650234418</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>294.7902571046869</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>286.2798792801991</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>264.7867761814353</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>210.3573114573325</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.79427060167436</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
